--- a/stock_historical_data/1d/ABCAPITAL.NS.xlsx
+++ b/stock_historical_data/1d/ABCAPITAL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1720"/>
+  <dimension ref="A1:R1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" t="n">
         <v>1</v>
@@ -95109,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>2</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95163,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95217,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95271,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95325,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95379,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95433,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95487,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95541,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95595,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95649,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95703,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95757,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95811,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95865,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95919,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95973,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96027,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96081,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96135,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96189,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96243,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96297,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96351,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96405,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96459,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96513,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96567,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96621,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96675,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96729,7 +96789,1413 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>218.9499969482422</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>224.3300018310547</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>218.0399932861328</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>222.2100067138672</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>222.2100067138672</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>7888008</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>223.7899932861328</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>226</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>222.1900024414062</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>223.2700042724609</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>223.2700042724609</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>6787380</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>223.2700042724609</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>224.2400054931641</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>218.7100067138672</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>219.0800018310547</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>219.0800018310547</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>3849329</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>222.4700012207031</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>219.6000061035156</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>221.8200073242188</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>221.8200073242188</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>3593559</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>222.6999969482422</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>225.6999969482422</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>221.0899963378906</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>222.7700042724609</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>222.7700042724609</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>9494832</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>224.6999969482422</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>224.6999969482422</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>221.0099945068359</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>221.9900054931641</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>221.9900054931641</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>4976732</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>221.9900054931641</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>223.7299957275391</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>218.0899963378906</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>221.1300048828125</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>221.1300048828125</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>5774279</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>222.7899932861328</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>223.3600006103516</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>219.6300048828125</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>220.1100006103516</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>220.1100006103516</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>1863921</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>221</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>227.3999938964844</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>219.1300048828125</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>226.9600067138672</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>226.9600067138672</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>10313854</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>228.1499938964844</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>229.4499969482422</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>223.3999938964844</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>224.8699951171875</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>224.8699951171875</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>7631591</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>220</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>223.9799957275391</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>220</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>221.7400054931641</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>221.7400054931641</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>2429811</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>222.9499969482422</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>223.6499938964844</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>223.6499938964844</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>4173629</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>223.6499938964844</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>224.3500061035156</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>215.6399993896484</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>216.7799987792969</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>216.7799987792969</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>4041495</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>217.8999938964844</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>218</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>216.75</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>216.75</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>3389407</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>217.4900054931641</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>220.7400054931641</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>216.25</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>217.4199981689453</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>217.4199981689453</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>2615686</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>218.0299987792969</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>219.9799957275391</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>212.8000030517578</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>213.8600006103516</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>213.8600006103516</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>3180362</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>216.0899963378906</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>221.6399993896484</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>214.8300018310547</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>220.4900054931641</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>220.4900054931641</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>3569309</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>221.0099945068359</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>227.1799926757812</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>220.8699951171875</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>226.1000061035156</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>226.1000061035156</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>5482274</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>227.25</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>231.6399993896484</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>225.4100036621094</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>226.4299926757812</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>226.4299926757812</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>6563231</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>227.6999969482422</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>227.6999969482422</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>222.8600006103516</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>225.1699981689453</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>225.1699981689453</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>4288195</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>228.1199951171875</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>223.1499938964844</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>227.1499938964844</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>227.1499938964844</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>6782150</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>235.6000061035156</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>222.8500061035156</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>229.5399932861328</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>229.5399932861328</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>21734548</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>230</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>230.9799957275391</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>225.5700073242188</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>228.2899932861328</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>228.2899932861328</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>20884105</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>230</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>228.2899932861328</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>233.6499938964844</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>233.6499938964844</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>8942942</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>235.0700073242188</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>231</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>232.7899932861328</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>232.7899932861328</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>4047642</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>231.8000030517578</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>234.4900054931641</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>233.2400054931641</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>233.2400054931641</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>3168738</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ABCAPITAL.NS.xlsx
+++ b/stock_historical_data/1d/ABCAPITAL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1746"/>
+  <dimension ref="A1:R1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96845,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96899,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96953,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -97007,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97061,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97115,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97169,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97223,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97277,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97331,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97385,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97439,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97493,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97547,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97601,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97655,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97709,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97763,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97817,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97871,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97925,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -97979,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98033,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98087,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98141,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98195,7 +98245,819 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>237.6699981689453</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>231.7200012207031</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>236.2400054931641</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>236.2400054931641</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>5613396</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>238</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>240.1900024414062</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>235.1000061035156</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>236.3000030517578</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>236.3000030517578</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>5227952</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>236.1999969482422</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>239.1999969482422</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>233.8500061035156</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>237.4799957275391</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>237.4799957275391</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>3740635</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>237</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>243.6000061035156</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>236.3999938964844</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>242.0299987792969</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>242.0299987792969</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>7599283</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>244</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>244</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>232</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>234.25</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>234.25</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>9858860</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>234.2400054931641</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>235</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>227.0500030517578</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>227.8300018310547</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>227.8300018310547</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>5361656</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>227.8200073242188</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>233.5700073242188</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>222.1999969482422</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>225.1600036621094</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>225.1600036621094</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>4979425</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>225</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>227.3500061035156</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>221.6000061035156</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>223.8300018310547</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>223.8300018310547</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>3647716</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>226.6999969482422</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>227.6799926757812</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>223</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>225.6100006103516</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>225.6100006103516</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>4605507</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>226.1900024414062</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>223.3000030517578</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>224.3899993896484</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>224.3899993896484</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>3347579</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>224</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>224.5200042724609</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>219.2400054931641</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>220.8399963378906</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>220.8399963378906</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>2573053</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>220.8399963378906</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>225.6499938964844</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>220.5099945068359</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>224.0800018310547</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>224.0800018310547</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>2005995</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>225.3099975585938</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>228.1000061035156</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>223.0200042724609</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>225.8500061035156</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>225.8500061035156</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>4017146</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>225.5500030517578</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>227.6399993896484</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>224.6699981689453</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>226.0500030517578</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>226.0500030517578</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>2359060</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>226.6999969482422</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>227.5399932861328</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>217.4799957275391</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>218.4900054931641</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>218.4900054931641</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>3365931</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ABCAPITAL.NS.xlsx
+++ b/stock_historical_data/1d/ABCAPITAL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1761"/>
+  <dimension ref="A1:R1794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98301,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98355,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98409,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98463,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98517,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98571,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98625,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98679,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98733,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98787,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98841,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98895,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98949,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99003,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99057,7 +99085,1791 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>216.5500030517578</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>223.0200042724609</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>213.3500061035156</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>222.0800018310547</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>222.0800018310547</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>3536957</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>222.8999938964844</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>223.0500030517578</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>214.9199981689453</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>215.75</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>215.75</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>2115783</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>214.8999938964844</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>216.6999969482422</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>206.3500061035156</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>207.5700073242188</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>207.5700073242188</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>3164130</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>208</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>214.1900024414062</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>205.9700012207031</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>211.0399932861328</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>211.0399932861328</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>2320503</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>211.6900024414062</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>214.6000061035156</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>210.2799987792969</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>212.4499969482422</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>212.4499969482422</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>2385877</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>212.0099945068359</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>212.6300048828125</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>200.6100006103516</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>202.9100036621094</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>202.9100036621094</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>7653343</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>204.1100006103516</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>205.5299987792969</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>201.1999969482422</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>202.8600006103516</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>202.8600006103516</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>7887550</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>203</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>205.9199981689453</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>199.4400024414062</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>204.5099945068359</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>204.5099945068359</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>13233157</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>205.8699951171875</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>218.8099975585938</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>203.9900054931641</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>215.3699951171875</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>215.3699951171875</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>29299209</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>216.2599945068359</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>201</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>203.2299957275391</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>203.2299957275391</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>23489246</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>205</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>208.8000030517578</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>204.1600036621094</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>206.1300048828125</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>206.1300048828125</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>3222749</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>206.1999969482422</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>207.1900024414062</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>197.6900024414062</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>199.1000061035156</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>199.1000061035156</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>8148906</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>198.9100036621094</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>202.4799957275391</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>197</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>201.9900054931641</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>201.9900054931641</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>5350020</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>203.8800048828125</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>206.8500061035156</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>202</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>206.1399993896484</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>206.1399993896484</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>4623858</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>206</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>206.9499969482422</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>202.3000030517578</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>203.2700042724609</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>203.2700042724609</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>4441470</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>203.2700042724609</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>204.5500030517578</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>200.3699951171875</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>201.1100006103516</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>201.1100006103516</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>3686605</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>201.9499969482422</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>202.9799957275391</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>198.1000061035156</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>199.3000030517578</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>199.3000030517578</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>2730654</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>201.3899993896484</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>194.0099945068359</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>194.7700042724609</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>194.7700042724609</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>3700550</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>193</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>194.1999969482422</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>186.7200012207031</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>187.6100006103516</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>187.6100006103516</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>6642649</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>190.8000030517578</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>187.0099945068359</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>188.9199981689453</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>188.9199981689453</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>2597625</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>189.0299987792969</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>190.3999938964844</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>184.5299987792969</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>185.0299987792969</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>185.0299987792969</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>6572741</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>186.4799957275391</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>189.1000061035156</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>184.7599945068359</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>184.7599945068359</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>8140821</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>186.2100067138672</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>186.2100067138672</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>179.1799926757812</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>183.0099945068359</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>183.0099945068359</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>8374947</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>187.3999938964844</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>183.0599975585938</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>186.4799957275391</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>186.4799957275391</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>2782501</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>190</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>193.1600036621094</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>189.6000061035156</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>3572479</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>192.5800018310547</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>190.2299957275391</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>191.2400054931641</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>191.2400054931641</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>1792061</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>192.3699951171875</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>194.5500030517578</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>190.2599945068359</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>193.3099975585938</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>193.3099975585938</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>2280701</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>194.3000030517578</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>196.1699981689453</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>193.0500030517578</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>193.8099975585938</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>193.8099975585938</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>2342790</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>196.3000030517578</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>192.6799926757812</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>194.3300018310547</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>194.3300018310547</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>2754013</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>195.1999969482422</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>195.3000030517578</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>191.9100036621094</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>194.1799926757812</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>194.1799926757812</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>2093046</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>194.8999938964844</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>200.1999969482422</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>194.1600036621094</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>199.4700012207031</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>199.4700012207031</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>3659996</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>200.9499969482422</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>200.9499969482422</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>197.6100006103516</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>198.9199981689453</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>198.9199981689453</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>2613016</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>200.3999938964844</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>200.3999938964844</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>197.0099945068359</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>199.1999969482422</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>199.1999969482422</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>1900903</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/ABCAPITAL.NS.xlsx
+++ b/stock_historical_data/1d/ABCAPITAL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1794"/>
+  <dimension ref="A1:R1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99141,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99195,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99249,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99303,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99357,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99411,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99465,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99519,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99573,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99627,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99681,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99735,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99789,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99843,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99897,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99951,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100005,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100059,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100113,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100167,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100221,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100275,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100329,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100383,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100437,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100491,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100545,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100599,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100653,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100707,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100761,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100815,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100869,7 +100933,2453 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>201.1499938964844</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>197.6000061035156</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>198.6799926757812</v>
+      </c>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="n">
+        <v>2497482</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>198.5500030517578</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>199.8500061035156</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>196.1900024414062</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>196.8300018310547</v>
+      </c>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="n">
+        <v>4213741</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>196.8099975585938</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>196.8099975585938</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>200.1300048828125</v>
+      </c>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="n">
+        <v>6776738</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>200.25</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>202.6000061035156</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>198.6300048828125</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>201.5800018310547</v>
+      </c>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="n">
+        <v>2656688</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>202.6999969482422</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>202.7899932861328</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>197</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="n">
+        <v>3408790</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>191.3500061035156</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>196.7100067138672</v>
+      </c>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="n">
+        <v>2607308</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>197.8000030517578</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>198.9499969482422</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>195.4499969482422</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>196.6199951171875</v>
+      </c>
+      <c r="F1801" t="inlineStr"/>
+      <c r="G1801" t="n">
+        <v>1410864</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>196.6199951171875</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>197.6000061035156</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>191</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>192.25</v>
+      </c>
+      <c r="F1802" t="inlineStr"/>
+      <c r="G1802" t="n">
+        <v>2181799</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>192.8999938964844</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>192.8999938964844</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>189.8500061035156</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>190.8899993896484</v>
+      </c>
+      <c r="F1803" t="inlineStr"/>
+      <c r="G1803" t="n">
+        <v>2280886</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>186.1000061035156</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>191.1699981689453</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>186</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>190.6499938964844</v>
+      </c>
+      <c r="F1804" t="inlineStr"/>
+      <c r="G1804" t="n">
+        <v>2440756</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>190.6499938964844</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>192</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>185.1499938964844</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>186.2100067138672</v>
+      </c>
+      <c r="F1805" t="inlineStr"/>
+      <c r="G1805" t="n">
+        <v>2907999</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>187.5299987792969</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>188.75</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>185.0200042724609</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>186.3899993896484</v>
+      </c>
+      <c r="F1806" t="inlineStr"/>
+      <c r="G1806" t="n">
+        <v>2052020</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>187.5299987792969</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>188.3800048828125</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>184.7100067138672</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>186.2599945068359</v>
+      </c>
+      <c r="F1807" t="inlineStr"/>
+      <c r="G1807" t="n">
+        <v>1321452</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>187.5200042724609</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>183.8999938964844</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>184.3500061035156</v>
+      </c>
+      <c r="F1808" t="inlineStr"/>
+      <c r="G1808" t="n">
+        <v>1695642</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>186.9499969482422</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>183.0299987792969</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>183.2400054931641</v>
+      </c>
+      <c r="F1809" t="inlineStr"/>
+      <c r="G1809" t="n">
+        <v>1541103</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>183.9799957275391</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>185.1300048828125</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>179.3699951171875</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>180.0700073242188</v>
+      </c>
+      <c r="F1810" t="inlineStr"/>
+      <c r="G1810" t="n">
+        <v>2604716</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>179.7899932861328</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>180.9499969482422</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>177.1100006103516</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>177.8200073242188</v>
+      </c>
+      <c r="F1811" t="inlineStr"/>
+      <c r="G1811" t="n">
+        <v>2201025</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>178.1999969482422</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>176.8200073242188</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>179</v>
+      </c>
+      <c r="F1812" t="inlineStr"/>
+      <c r="G1812" t="n">
+        <v>1667032</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>179.8000030517578</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>184.7700042724609</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>179.4100036621094</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>183.8899993896484</v>
+      </c>
+      <c r="F1813" t="inlineStr"/>
+      <c r="G1813" t="n">
+        <v>3057307</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>184</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>186.3899993896484</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>183.6100006103516</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>184.4499969482422</v>
+      </c>
+      <c r="F1814" t="inlineStr"/>
+      <c r="G1814" t="n">
+        <v>2454842</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>184.7400054931641</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>175.2799987792969</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>176.2700042724609</v>
+      </c>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="n">
+        <v>3451591</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>180.3500061035156</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>176</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>179.8300018310547</v>
+      </c>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="n">
+        <v>2965351</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>180</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>175.6100006103516</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>178.9100036621094</v>
+      </c>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="n">
+        <v>1912030</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>179</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>179.0299987792969</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>173</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>173.5200042724609</v>
+      </c>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="n">
+        <v>2507589</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>173.9799957275391</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>167.6300048828125</v>
+      </c>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="n">
+        <v>3750653</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>171</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>173.8000030517578</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>168.4600067138672</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>169.8399963378906</v>
+      </c>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="n">
+        <v>15183138</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>170.8099975585938</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>175.9600067138672</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>170.1499938964844</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>174.3699951171875</v>
+      </c>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="n">
+        <v>4081644</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>175.3999938964844</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>172.0099945068359</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>173.7899932861328</v>
+      </c>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="n">
+        <v>2212822</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>176.3999938964844</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>179.9499969482422</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>176.3899993896484</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>177.7899932861328</v>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="n">
+        <v>3323275</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>177.3000030517578</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>177.9499969482422</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>175.6600036621094</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>177.1799926757812</v>
+      </c>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="n">
+        <v>1632162</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>178.4499969482422</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>179.2400054931641</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>176.2899932861328</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>178.3300018310547</v>
+      </c>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="n">
+        <v>1621760</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>178.3300018310547</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>179.1300048828125</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>173.8300018310547</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>174.3600006103516</v>
+      </c>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="n">
+        <v>2495332</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>168.5599975585938</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>173.0299987792969</v>
+      </c>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="n">
+        <v>2552548</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>173</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>176</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>172.0500030517578</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>174.2700042724609</v>
+      </c>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="n">
+        <v>1576070</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>174.2700042724609</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>174.9900054931641</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>169.25</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>170.4299926757812</v>
+      </c>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="n">
+        <v>1850615</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>169.9900054931641</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>169.9900054931641</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>163.8999938964844</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>165.1000061035156</v>
+      </c>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="n">
+        <v>4894227</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>167.7899932861328</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>172.3999938964844</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>162.6600036621094</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>169.0099945068359</v>
+      </c>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="n">
+        <v>7603826</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>168.0299987792969</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>176.8300018310547</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>168.0299987792969</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>176.5399932861328</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>3352447</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>176.5399932861328</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>177.6799926757812</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>175.25</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>177.1799926757812</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>2557549</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>177.0800018310547</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>181.6000061035156</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>175.3200073242188</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>179.3899993896484</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>2660220</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>180.6000061035156</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>180.6000061035156</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>172.6100006103516</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>176.6199951171875</v>
+      </c>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="n">
+        <v>2433075</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>175.8000030517578</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>178.7899932861328</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>168.7100067138672</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>172.4600067138672</v>
+      </c>
+      <c r="F1836" t="inlineStr"/>
+      <c r="G1836" t="n">
+        <v>7683639</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>171.8899993896484</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>172.6900024414062</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>165.7400054931641</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>167.5099945068359</v>
+      </c>
+      <c r="F1837" t="inlineStr"/>
+      <c r="G1837" t="n">
+        <v>7057180</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>172.6900024414062</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>168.2700042724609</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>171.7599945068359</v>
+      </c>
+      <c r="F1838" t="inlineStr"/>
+      <c r="G1838" t="n">
+        <v>4448345</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>172</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>173.5899963378906</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>168.6399993896484</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>169.1900024414062</v>
+      </c>
+      <c r="F1839" t="inlineStr"/>
+      <c r="G1839" t="n">
+        <v>1805857</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>169.3000030517578</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>172.2899932861328</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>167.7899932861328</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>169.4100036621094</v>
+      </c>
+      <c r="F1840" t="inlineStr"/>
+      <c r="G1840" t="n">
+        <v>3474325</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>171</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>166.6000061035156</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>167.2100067138672</v>
+      </c>
+      <c r="F1841" t="inlineStr"/>
+      <c r="G1841" t="n">
+        <v>3204404</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
